--- a/GenerateApp/tables_short_horiz/Data/4/source.xlsx
+++ b/GenerateApp/tables_short_horiz/Data/4/source.xlsx
@@ -11,50 +11,6 @@
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>NCLH</t>
-  </si>
-  <si>
-    <t>KSU</t>
-  </si>
-  <si>
-    <t>UA</t>
-  </si>
-  <si>
-    <t>MCHP</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>TSS</t>
-  </si>
-  <si>
-    <t>ZION</t>
-  </si>
-  <si>
-    <t>KMI</t>
-  </si>
-  <si>
-    <t>WDC</t>
-  </si>
-  <si>
-    <t>BSX</t>
-  </si>
-  <si>
-    <t>STI</t>
-  </si>
-  <si>
-    <t>TXT</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -113,100 +69,77 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFFF00"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </c:spPr>
           <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$1:$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>NCLH</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>KSU</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>UA</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MCHP</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>PG</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>TSS</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>ZION</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>KMI</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>WDC</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>BSX</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>STI</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>TXT</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>EBAY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$13</c:f>
+              <c:f>Sheet1!$B$1:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>929</c:v>
+                  <c:v>224</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>253</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>431</c:v>
+                  <c:v>478</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>225</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>903</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>538</c:v>
+                  <c:v>516</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>796</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>634</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>489</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>618</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>488</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -221,13 +154,16 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="650" baseline="0"/>
+              <a:defRPr sz="650" baseline="0">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -280,10 +216,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -590,114 +526,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="B1">
-        <v>929</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>253</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>431</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>225</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>903</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>538</v>
+        <v>516</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>796</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>634</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9">
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>488</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
